--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40750.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>55.74</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>4.74</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -443,8 +443,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -452,30 +452,30 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="W3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q3" s="4" t="n">
+      <c r="AA3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X3" s="4" t="n">
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.75</v>
+        <v>0.58</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.91</v>
+        <v>7.89</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.09</v>
+        <v>3.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.83</v>
+        <v>3.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.11</v>
+        <v>4.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.55</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.95</v>
+        <v>19.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.74</v>
+        <v>3.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.63</v>
+        <v>2.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.66</v>
+        <v>2.47</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.34</v>
+        <v>4.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="6">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>0</v>
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="X6" s="4" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AA6" s="4" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AG6" s="4" t="n">
         <v>0</v>
@@ -1175,103 +1175,103 @@
         <v>40750.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V7" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="W7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40750.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.15</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>2.16</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.55</v>
-      </c>
       <c r="U8" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40750.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>27.27</v>
+        <v>2.73</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>22.81</v>
+        <v>2.28</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>32.91</v>
+        <v>3.29</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>141.65</v>
+        <v>14.16</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>26.98</v>
+        <v>2.7</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40750.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>1.79</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -454,7 +454,7 @@
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -471,7 +471,7 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.00694444445</v>
+        <v>40442.59722222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K2" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="L2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.01</v>
+        <v>3.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="W2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AC2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.01388888889</v>
+        <v>40442.60416666666</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="K3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.02083333334</v>
+        <v>40442.61111111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.79</v>
+        <v>1.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.5</v>
+        <v>3.81</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.25</v>
+        <v>3.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.72</v>
+        <v>4.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.84</v>
+        <v>2.12</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.62</v>
+        <v>1.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.67</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.34</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.82</v>
+        <v>2.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.11</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.89</v>
+        <v>20.41</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.54</v>
+        <v>3.87</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.3</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.88</v>
+        <v>2.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.24</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.48</v>
+        <v>4.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.71</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.63</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.02777777778</v>
+        <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.71</v>
+        <v>1.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.08</v>
+        <v>1.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.91</v>
+        <v>2.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.44</v>
+        <v>0.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.9</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.77</v>
+        <v>1.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.64</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.56</v>
+        <v>1.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.47</v>
+        <v>1.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.55</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.61</v>
+        <v>0.79</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.43</v>
+        <v>2.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>40750.03472222222</v>
+        <v>40442.62498842592</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>8.18</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>23.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>20.01</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0</v>
+        <v>8.69</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.72</v>
+        <v>33.58</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0</v>
+        <v>13.21</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0</v>
+        <v>8.77</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0</v>
+        <v>12.64</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0</v>
+        <v>124.14</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.06</v>
+        <v>24.13</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0</v>
+        <v>8.09</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.06</v>
+        <v>16.23</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.31</v>
+        <v>16.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0</v>
+        <v>7.02</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.75</v>
+        <v>30.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>40750.04166666666</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>40750.04861111111</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>40750.05555555555</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>40750.0625</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>40750.06944444445</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>26.33</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>101.51</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40442.59722222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40442.60416666666</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40442.61111111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.15</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.81</v>
+        <v>38.15</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.22</v>
+        <v>32.19</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.85</v>
+        <v>48.49</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.41</v>
+        <v>204.14</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.87</v>
+        <v>38.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.6</v>
+        <v>26.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.25</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>40442.59722222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>4.96</v>
@@ -670,88 +670,88 @@
         <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40442.60416666666</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.77</v>
+        <v>3.771</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.227</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.599</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.46</v>
+        <v>6.456</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.36</v>
+        <v>6.364</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.594</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.56</v>
+        <v>8.564</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>3.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.577</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.233</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.92</v>
+        <v>2.925</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.46</v>
+        <v>4.463</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.526</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.24</v>
+        <v>7.243</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.642</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.59</v>
+        <v>4.592</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.21</v>
+        <v>3.212</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.992</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2</v>
+        <v>1.995</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.076</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.39</v>
+        <v>3.386</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.068</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>7.7</v>
+        <v>7.698</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>1.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.644</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40442.61111111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.03</v>
+        <v>18.028</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.15</v>
+        <v>13.153</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.15</v>
+        <v>38.146</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>32.19</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.97</v>
+        <v>13.966</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.49</v>
+        <v>48.495</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.21</v>
+        <v>21.206</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.52</v>
+        <v>9.519</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.11</v>
+        <v>14.107</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.69</v>
+        <v>16.685</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.42</v>
+        <v>4.424</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.4</v>
+        <v>13.399</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.34</v>
+        <v>20.338</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.08</v>
+        <v>11.083</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.14</v>
+        <v>204.138</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.71</v>
+        <v>38.709</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13</v>
+        <v>12.999</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>26.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.18</v>
+        <v>14.184</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.774</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.28</v>
+        <v>24.279</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.27</v>
+        <v>11.273</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.11</v>
+        <v>10.107</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.45</v>
+        <v>12.446</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.31</v>
+        <v>16.309</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.91</v>
+        <v>43.911</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.14</v>
+        <v>7.136</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.81</v>
+        <v>15.806</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.62498842592</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
@@ -967,103 +967,207 @@
         <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.83</v>
+        <v>8.831</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.34</v>
+        <v>6.343</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.44</v>
+        <v>18.436</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.72</v>
+        <v>15.718</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.79</v>
+        <v>6.793</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.21</v>
+        <v>29.213</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>10.25</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.64</v>
+        <v>4.635</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.77</v>
+        <v>6.769</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.55</v>
+        <v>7.546</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.18</v>
+        <v>8.178000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.15</v>
+        <v>2.152</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.37</v>
+        <v>6.368</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>10.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.28</v>
+        <v>5.276</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.252</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.51000000000001</v>
+        <v>95.514</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.02</v>
+        <v>19.021</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.37</v>
+        <v>6.375</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>12.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7</v>
+        <v>7.002</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.854</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.77</v>
+        <v>13.768</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.48</v>
+        <v>5.478</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.97</v>
+        <v>4.971</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.23</v>
+        <v>6.234</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.93</v>
+        <v>7.934</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.83</v>
+        <v>26.827</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.42</v>
+        <v>3.417</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40442.62498842592</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_35.xlsx
+++ b/DATA_goal/Junction_Flooding_35.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
@@ -967,207 +967,103 @@
         <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.831</v>
+        <v>8.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.343</v>
+        <v>6.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.436</v>
+        <v>18.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.718</v>
+        <v>15.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.793</v>
+        <v>6.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.213</v>
+        <v>29.21</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>10.25</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.635</v>
+        <v>4.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.769</v>
+        <v>6.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.546</v>
+        <v>7.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.178000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.152</v>
+        <v>2.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.368</v>
+        <v>6.37</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>10.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.276</v>
+        <v>5.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.252</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.514</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.021</v>
+        <v>19.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.375</v>
+        <v>6.37</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>12.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.002</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.854</v>
+        <v>0.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.768</v>
+        <v>13.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.478</v>
+        <v>5.48</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.971</v>
+        <v>4.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.234</v>
+        <v>6.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.934</v>
+        <v>7.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.827</v>
+        <v>26.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.417</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.62498842592</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.84</v>
       </c>
     </row>
   </sheetData>
